--- a/Code/Results/Cases/Case_5_173/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_173/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.041517944854484</v>
+        <v>1.08530170911896</v>
       </c>
       <c r="D2">
-        <v>1.057763147677113</v>
+        <v>1.085124543965623</v>
       </c>
       <c r="E2">
-        <v>1.050729880017032</v>
+        <v>1.08726554938127</v>
       </c>
       <c r="F2">
-        <v>1.063251724252616</v>
+        <v>1.096873305803912</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.067936633545386</v>
+        <v>1.059245209726623</v>
       </c>
       <c r="J2">
-        <v>1.062524008945997</v>
+        <v>1.090157246685577</v>
       </c>
       <c r="K2">
-        <v>1.068472396257142</v>
+        <v>1.087785785571798</v>
       </c>
       <c r="L2">
-        <v>1.061524970168026</v>
+        <v>1.089921258391643</v>
       </c>
       <c r="M2">
-        <v>1.073894962898193</v>
+        <v>1.099504473980934</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.050433347015364</v>
+        <v>1.08701399729553</v>
       </c>
       <c r="D3">
-        <v>1.064909818311039</v>
+        <v>1.086493387049638</v>
       </c>
       <c r="E3">
-        <v>1.058500064689993</v>
+        <v>1.088776999058817</v>
       </c>
       <c r="F3">
-        <v>1.071000811139552</v>
+        <v>1.098384363779025</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.071283905984399</v>
+        <v>1.059759922991254</v>
       </c>
       <c r="J3">
-        <v>1.069637581102999</v>
+        <v>1.091529202272312</v>
       </c>
       <c r="K3">
-        <v>1.074774439185521</v>
+        <v>1.088972439691654</v>
       </c>
       <c r="L3">
-        <v>1.068435389138348</v>
+        <v>1.091250581336528</v>
       </c>
       <c r="M3">
-        <v>1.080799206333066</v>
+        <v>1.100835199105746</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.056007480061566</v>
+        <v>1.088119578485727</v>
       </c>
       <c r="D4">
-        <v>1.06937988263214</v>
+        <v>1.087376886973792</v>
       </c>
       <c r="E4">
-        <v>1.06335956440229</v>
+        <v>1.089752568116499</v>
       </c>
       <c r="F4">
-        <v>1.07584964236986</v>
+        <v>1.099359950300613</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.07336159989471</v>
+        <v>1.060090394316215</v>
       </c>
       <c r="J4">
-        <v>1.074079456246702</v>
+        <v>1.092414179809803</v>
       </c>
       <c r="K4">
-        <v>1.078707301957797</v>
+        <v>1.089737510452409</v>
       </c>
       <c r="L4">
-        <v>1.072749016122982</v>
+        <v>1.092107789751352</v>
       </c>
       <c r="M4">
-        <v>1.08511134034763</v>
+        <v>1.101693581356674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.058307224397712</v>
+        <v>1.088583806880932</v>
       </c>
       <c r="D5">
-        <v>1.071224426394597</v>
+        <v>1.087747785041193</v>
       </c>
       <c r="E5">
-        <v>1.065364710679208</v>
+        <v>1.090162124136733</v>
       </c>
       <c r="F5">
-        <v>1.07785097134132</v>
+        <v>1.09976957797388</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.074215113918744</v>
+        <v>1.060228710566107</v>
       </c>
       <c r="J5">
-        <v>1.075910624786055</v>
+        <v>1.092785571623835</v>
       </c>
       <c r="K5">
-        <v>1.080328056851223</v>
+        <v>1.090058490920425</v>
       </c>
       <c r="L5">
-        <v>1.074526971330068</v>
+        <v>1.092467463566305</v>
       </c>
       <c r="M5">
-        <v>1.086889230881704</v>
+        <v>1.102053811967877</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.058690885321719</v>
+        <v>1.088661720521894</v>
       </c>
       <c r="D6">
-        <v>1.071532162230923</v>
+        <v>1.087810029923796</v>
       </c>
       <c r="E6">
-        <v>1.065699236201193</v>
+        <v>1.090230857096989</v>
       </c>
       <c r="F6">
-        <v>1.078184893815228</v>
+        <v>1.099838326720327</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.074357284817986</v>
+        <v>1.060251898600483</v>
       </c>
       <c r="J6">
-        <v>1.076216028079631</v>
+        <v>1.092847891963497</v>
       </c>
       <c r="K6">
-        <v>1.080598332801515</v>
+        <v>1.090112346781093</v>
       </c>
       <c r="L6">
-        <v>1.074823479281195</v>
+        <v>1.092527813828687</v>
       </c>
       <c r="M6">
-        <v>1.087185760000709</v>
+        <v>1.102114259417341</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.056038377015815</v>
+        <v>1.088125783703027</v>
       </c>
       <c r="D7">
-        <v>1.069404662911304</v>
+        <v>1.087381844983107</v>
       </c>
       <c r="E7">
-        <v>1.063386502604418</v>
+        <v>1.089758042861338</v>
       </c>
       <c r="F7">
-        <v>1.07587652699905</v>
+        <v>1.09936542575092</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.073373081511438</v>
+        <v>1.060092244910821</v>
       </c>
       <c r="J7">
-        <v>1.074104063675886</v>
+        <v>1.092419144916044</v>
       </c>
       <c r="K7">
-        <v>1.078729084130494</v>
+        <v>1.089741801971791</v>
       </c>
       <c r="L7">
-        <v>1.072772909834864</v>
+        <v>1.092112598453542</v>
       </c>
       <c r="M7">
-        <v>1.085135231028424</v>
+        <v>1.101698397250678</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.044573168103777</v>
+        <v>1.085880886192939</v>
       </c>
       <c r="D8">
-        <v>1.060211788726096</v>
+        <v>1.085587618891338</v>
       </c>
       <c r="E8">
-        <v>1.053392295933604</v>
+        <v>1.087776862679382</v>
       </c>
       <c r="F8">
-        <v>1.065906362814687</v>
+        <v>1.097384430298239</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.069086867559835</v>
+        <v>1.059419696870241</v>
       </c>
       <c r="J8">
-        <v>1.064962928326241</v>
+        <v>1.090621485142613</v>
       </c>
       <c r="K8">
-        <v>1.070633544215869</v>
+        <v>1.088187400524057</v>
       </c>
       <c r="L8">
-        <v>1.063894527669627</v>
+        <v>1.090371126791929</v>
       </c>
       <c r="M8">
-        <v>1.076261892042245</v>
+        <v>1.099954760770665</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.022725948409856</v>
+        <v>1.081906259846069</v>
       </c>
       <c r="D9">
-        <v>1.042715535293561</v>
+        <v>1.082408441323235</v>
       </c>
       <c r="E9">
-        <v>1.03436437024103</v>
+        <v>1.084266591487533</v>
       </c>
       <c r="F9">
-        <v>1.04694603659491</v>
+        <v>1.093876584021225</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060798878358906</v>
+        <v>1.058214604362877</v>
       </c>
       <c r="J9">
-        <v>1.047500951660945</v>
+        <v>1.087432105509635</v>
       </c>
       <c r="K9">
-        <v>1.05515161569288</v>
+        <v>1.085426707197249</v>
       </c>
       <c r="L9">
-        <v>1.046923470867128</v>
+        <v>1.087279359456257</v>
       </c>
       <c r="M9">
-        <v>1.059320746920038</v>
+        <v>1.096861242041422</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006807984121513</v>
+        <v>1.079243043975719</v>
       </c>
       <c r="D10">
-        <v>1.029992395683808</v>
+        <v>1.080276619470768</v>
       </c>
       <c r="E10">
-        <v>1.020519793778486</v>
+        <v>1.081912826054109</v>
       </c>
       <c r="F10">
-        <v>1.033167401724904</v>
+        <v>1.091525880624595</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054682951775283</v>
+        <v>1.057397499911419</v>
       </c>
       <c r="J10">
-        <v>1.034754071280401</v>
+        <v>1.085290630642365</v>
       </c>
       <c r="K10">
-        <v>1.043840450861544</v>
+        <v>1.083571140111884</v>
       </c>
       <c r="L10">
-        <v>1.034528183905383</v>
+        <v>1.085202023534982</v>
       </c>
       <c r="M10">
-        <v>1.046962563247352</v>
+        <v>1.094784156202508</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9995264484429033</v>
+        <v>1.078086468508089</v>
       </c>
       <c r="D11">
-        <v>1.024180948121701</v>
+        <v>1.079350450965541</v>
       </c>
       <c r="E11">
-        <v>1.014193494221391</v>
+        <v>1.080890243180369</v>
       </c>
       <c r="F11">
-        <v>1.026875692456617</v>
+        <v>1.090504973939938</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051868290919749</v>
+        <v>1.057040370504788</v>
       </c>
       <c r="J11">
-        <v>1.028918940992015</v>
+        <v>1.08435959254955</v>
       </c>
       <c r="K11">
-        <v>1.038660814025784</v>
+        <v>1.082763951871857</v>
       </c>
       <c r="L11">
-        <v>1.028852615670671</v>
+        <v>1.084298537337754</v>
       </c>
       <c r="M11">
-        <v>1.041307967196373</v>
+        <v>1.093881121233627</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.99675634062601</v>
+        <v>1.077656340680966</v>
       </c>
       <c r="D12">
-        <v>1.021971680071969</v>
+        <v>1.079005957199657</v>
       </c>
       <c r="E12">
-        <v>1.011788028451946</v>
+        <v>1.080509888140073</v>
       </c>
       <c r="F12">
-        <v>1.024484094847053</v>
+        <v>1.09012529477788</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050795100097814</v>
+        <v>1.056907212825952</v>
       </c>
       <c r="J12">
-        <v>1.026698615187777</v>
+        <v>1.084013185225237</v>
       </c>
       <c r="K12">
-        <v>1.036689705677001</v>
+        <v>1.082463557190281</v>
       </c>
       <c r="L12">
-        <v>1.026692820262588</v>
+        <v>1.083962330947784</v>
       </c>
       <c r="M12">
-        <v>1.039156785284768</v>
+        <v>1.093545134544137</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9973536238719918</v>
+        <v>1.077748628533044</v>
       </c>
       <c r="D13">
-        <v>1.022447960626584</v>
+        <v>1.079079873896298</v>
       </c>
       <c r="E13">
-        <v>1.01230662857057</v>
+        <v>1.080591499435731</v>
       </c>
       <c r="F13">
-        <v>1.024999672017528</v>
+        <v>1.090206758674656</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051026604947955</v>
+        <v>1.056935798491563</v>
       </c>
       <c r="J13">
-        <v>1.027177374467567</v>
+        <v>1.084087517146521</v>
       </c>
       <c r="K13">
-        <v>1.037114735511192</v>
+        <v>1.082528018793969</v>
       </c>
       <c r="L13">
-        <v>1.027158535525559</v>
+        <v>1.084034476228867</v>
       </c>
       <c r="M13">
-        <v>1.03962061410491</v>
+        <v>1.093617230332158</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9992988497032824</v>
+        <v>1.078050924791969</v>
       </c>
       <c r="D14">
-        <v>1.023999395704786</v>
+        <v>1.079321984730383</v>
       </c>
       <c r="E14">
-        <v>1.013995828795317</v>
+        <v>1.08085881364534</v>
       </c>
       <c r="F14">
-        <v>1.026679151848972</v>
+        <v>1.090473599182888</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051780162926105</v>
+        <v>1.057029373961025</v>
       </c>
       <c r="J14">
-        <v>1.028736522258496</v>
+        <v>1.084330970283132</v>
       </c>
       <c r="K14">
-        <v>1.038498874425064</v>
+        <v>1.08273913282482</v>
       </c>
       <c r="L14">
-        <v>1.028675173609328</v>
+        <v>1.084270758957761</v>
       </c>
       <c r="M14">
-        <v>1.041131219776449</v>
+        <v>1.093853359948129</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000488469386608</v>
+        <v>1.078237109563503</v>
       </c>
       <c r="D15">
-        <v>1.024948404774602</v>
+        <v>1.079471094111215</v>
       </c>
       <c r="E15">
-        <v>1.01502904396978</v>
+        <v>1.081023445149021</v>
       </c>
       <c r="F15">
-        <v>1.027706516817183</v>
+        <v>1.090637945901021</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052240695938075</v>
+        <v>1.057086961958141</v>
       </c>
       <c r="J15">
-        <v>1.029689975593713</v>
+        <v>1.084480892782469</v>
       </c>
       <c r="K15">
-        <v>1.039345280939636</v>
+        <v>1.082869131419192</v>
       </c>
       <c r="L15">
-        <v>1.029602607894832</v>
+        <v>1.084416259153385</v>
       </c>
       <c r="M15">
-        <v>1.042055049256271</v>
+        <v>1.093998772725931</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007282470915838</v>
+        <v>1.079319729427144</v>
       </c>
       <c r="D16">
-        <v>1.030371287412538</v>
+        <v>1.080338020448664</v>
       </c>
       <c r="E16">
-        <v>1.020932192138188</v>
+        <v>1.08198061901387</v>
       </c>
       <c r="F16">
-        <v>1.033577640816487</v>
+        <v>1.091593569776109</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054866024934143</v>
+        <v>1.057421131047644</v>
       </c>
       <c r="J16">
-        <v>1.035134232295837</v>
+        <v>1.085352340168406</v>
       </c>
       <c r="K16">
-        <v>1.044177875044851</v>
+        <v>1.083624631335352</v>
       </c>
       <c r="L16">
-        <v>1.034897922716988</v>
+        <v>1.085261899890334</v>
       </c>
       <c r="M16">
-        <v>1.047331020612166</v>
+        <v>1.094844009885401</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.01143545779307</v>
+        <v>1.079997910940931</v>
       </c>
       <c r="D17">
-        <v>1.033688568510417</v>
+        <v>1.080880988954002</v>
       </c>
       <c r="E17">
-        <v>1.024542528404453</v>
+        <v>1.082580112711141</v>
       </c>
       <c r="F17">
-        <v>1.037169579087169</v>
+        <v>1.092192185441919</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056466498301755</v>
+        <v>1.05762985438964</v>
       </c>
       <c r="J17">
-        <v>1.038461171784684</v>
+        <v>1.085897959130219</v>
       </c>
       <c r="K17">
-        <v>1.047130619199493</v>
+        <v>1.084097534134985</v>
       </c>
       <c r="L17">
-        <v>1.038133500223234</v>
+        <v>1.085791272000037</v>
       </c>
       <c r="M17">
-        <v>1.050555834490972</v>
+        <v>1.095373221059257</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013820825271073</v>
+        <v>1.08039315716033</v>
       </c>
       <c r="D18">
-        <v>1.035594715380947</v>
+        <v>1.081197397330005</v>
       </c>
       <c r="E18">
-        <v>1.026616828593878</v>
+        <v>1.082929461365665</v>
       </c>
       <c r="F18">
-        <v>1.039233721953533</v>
+        <v>1.092541055712005</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057384173591325</v>
+        <v>1.057751279437119</v>
       </c>
       <c r="J18">
-        <v>1.04037167798377</v>
+        <v>1.086215846997696</v>
       </c>
       <c r="K18">
-        <v>1.048826076852453</v>
+        <v>1.084373012587571</v>
       </c>
       <c r="L18">
-        <v>1.03999141039263</v>
+        <v>1.086099662053733</v>
       </c>
       <c r="M18">
-        <v>1.052407933239544</v>
+        <v>1.095681550292052</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.014628091781604</v>
+        <v>1.080527871151401</v>
       </c>
       <c r="D19">
-        <v>1.036239927954621</v>
+        <v>1.081305234553588</v>
       </c>
       <c r="E19">
-        <v>1.027318921008417</v>
+        <v>1.083048525357449</v>
       </c>
       <c r="F19">
-        <v>1.039932445219235</v>
+        <v>1.092659962293465</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057694462952841</v>
+        <v>1.057792628169922</v>
       </c>
       <c r="J19">
-        <v>1.0410181676239</v>
+        <v>1.086324177448962</v>
       </c>
       <c r="K19">
-        <v>1.049399767332795</v>
+        <v>1.084466883266054</v>
       </c>
       <c r="L19">
-        <v>1.040620079378059</v>
+        <v>1.086204750380475</v>
       </c>
       <c r="M19">
-        <v>1.053034697473665</v>
+        <v>1.095786623469054</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010993755413768</v>
+        <v>1.079925182271964</v>
       </c>
       <c r="D20">
-        <v>1.033335666216273</v>
+        <v>1.080822764268151</v>
       </c>
       <c r="E20">
-        <v>1.024158475459583</v>
+        <v>1.082515826514641</v>
       </c>
       <c r="F20">
-        <v>1.03678743995817</v>
+        <v>1.092127989953694</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056296440569571</v>
+        <v>1.057607493462699</v>
       </c>
       <c r="J20">
-        <v>1.038107366679487</v>
+        <v>1.085839456959562</v>
       </c>
       <c r="K20">
-        <v>1.046816624954396</v>
+        <v>1.08404683322203</v>
       </c>
       <c r="L20">
-        <v>1.037789424545018</v>
+        <v>1.085734515165348</v>
       </c>
       <c r="M20">
-        <v>1.050212864785456</v>
+        <v>1.095316478068794</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.998727897224385</v>
+        <v>1.077961920674696</v>
       </c>
       <c r="D21">
-        <v>1.02354398099554</v>
+        <v>1.079250702289126</v>
       </c>
       <c r="E21">
-        <v>1.01349998757321</v>
+        <v>1.080780110797526</v>
       </c>
       <c r="F21">
-        <v>1.026186143881773</v>
+        <v>1.090395034352762</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051559047484942</v>
+        <v>1.057001832272235</v>
       </c>
       <c r="J21">
-        <v>1.028278900982914</v>
+        <v>1.084259295468838</v>
       </c>
       <c r="K21">
-        <v>1.038092624656512</v>
+        <v>1.082676980800104</v>
       </c>
       <c r="L21">
-        <v>1.028230034092835</v>
+        <v>1.084201196561877</v>
       </c>
       <c r="M21">
-        <v>1.040687833152469</v>
+        <v>1.093783841197532</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9906329657231058</v>
+        <v>1.076724499485266</v>
       </c>
       <c r="D22">
-        <v>1.017091310617999</v>
+        <v>1.078259538968715</v>
       </c>
       <c r="E22">
-        <v>1.006473279894419</v>
+        <v>1.079685769243856</v>
       </c>
       <c r="F22">
-        <v>1.019201366861806</v>
+        <v>1.089302736697671</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048418505194178</v>
+        <v>1.056618110794992</v>
       </c>
       <c r="J22">
-        <v>1.021789864790664</v>
+        <v>1.083262432884126</v>
       </c>
       <c r="K22">
-        <v>1.032331622373998</v>
+        <v>1.081812402541453</v>
       </c>
       <c r="L22">
-        <v>1.021917581401586</v>
+        <v>1.083233594694756</v>
       </c>
       <c r="M22">
-        <v>1.03440180235739</v>
+        <v>1.092816969647702</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9949631978414962</v>
+        <v>1.077380773335792</v>
       </c>
       <c r="D23">
-        <v>1.020542061980173</v>
+        <v>1.078785237507554</v>
       </c>
       <c r="E23">
-        <v>1.010231306784881</v>
+        <v>1.080266191947922</v>
       </c>
       <c r="F23">
-        <v>1.022936556201243</v>
+        <v>1.089882046436312</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05009974266702</v>
+        <v>1.056821807263202</v>
       </c>
       <c r="J23">
-        <v>1.025261244976037</v>
+        <v>1.083791210611448</v>
       </c>
       <c r="K23">
-        <v>1.035413621170292</v>
+        <v>1.082271048059055</v>
       </c>
       <c r="L23">
-        <v>1.025294586908773</v>
+        <v>1.083746878860738</v>
       </c>
       <c r="M23">
-        <v>1.037764311286988</v>
+        <v>1.093329837871188</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011193455531641</v>
+        <v>1.079958046232838</v>
       </c>
       <c r="D24">
-        <v>1.03349521608643</v>
+        <v>1.080849074411966</v>
       </c>
       <c r="E24">
-        <v>1.024332109520001</v>
+        <v>1.082544875686567</v>
       </c>
       <c r="F24">
-        <v>1.036960207482359</v>
+        <v>1.092156998034187</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056373331132783</v>
+        <v>1.05761759839106</v>
       </c>
       <c r="J24">
-        <v>1.03826732841065</v>
+        <v>1.085865892692158</v>
       </c>
       <c r="K24">
-        <v>1.0469585879899</v>
+        <v>1.084069743887603</v>
       </c>
       <c r="L24">
-        <v>1.037944987834507</v>
+        <v>1.085760162321552</v>
       </c>
       <c r="M24">
-        <v>1.050367926897292</v>
+        <v>1.095342118867298</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.028592192885474</v>
+        <v>1.08293610987633</v>
       </c>
       <c r="D25">
-        <v>1.047410120796229</v>
+        <v>1.08323247168638</v>
       </c>
       <c r="E25">
-        <v>1.039470982126705</v>
+        <v>1.085176424139053</v>
       </c>
       <c r="F25">
-        <v>1.052031815036748</v>
+        <v>1.094785537499505</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063037744892211</v>
+        <v>1.058528545480589</v>
       </c>
       <c r="J25">
-        <v>1.052194195828462</v>
+        <v>1.088259271521975</v>
       </c>
       <c r="K25">
-        <v>1.059314480730655</v>
+        <v>1.086143033851411</v>
       </c>
       <c r="L25">
-        <v>1.051485973413914</v>
+        <v>1.088081455635591</v>
       </c>
       <c r="M25">
-        <v>1.063872740228347</v>
+        <v>1.097663543357359</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_173/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_173/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.08530170911896</v>
+        <v>1.041517944854483</v>
       </c>
       <c r="D2">
-        <v>1.085124543965623</v>
+        <v>1.057763147677113</v>
       </c>
       <c r="E2">
-        <v>1.08726554938127</v>
+        <v>1.050729880017031</v>
       </c>
       <c r="F2">
-        <v>1.096873305803912</v>
+        <v>1.063251724252616</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059245209726623</v>
+        <v>1.067936633545386</v>
       </c>
       <c r="J2">
-        <v>1.090157246685577</v>
+        <v>1.062524008945996</v>
       </c>
       <c r="K2">
-        <v>1.087785785571798</v>
+        <v>1.068472396257141</v>
       </c>
       <c r="L2">
-        <v>1.089921258391643</v>
+        <v>1.061524970168025</v>
       </c>
       <c r="M2">
-        <v>1.099504473980934</v>
+        <v>1.073894962898193</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.08701399729553</v>
+        <v>1.050433347015364</v>
       </c>
       <c r="D3">
-        <v>1.086493387049638</v>
+        <v>1.064909818311039</v>
       </c>
       <c r="E3">
-        <v>1.088776999058817</v>
+        <v>1.058500064689994</v>
       </c>
       <c r="F3">
-        <v>1.098384363779025</v>
+        <v>1.071000811139553</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059759922991254</v>
+        <v>1.071283905984399</v>
       </c>
       <c r="J3">
-        <v>1.091529202272312</v>
+        <v>1.069637581103</v>
       </c>
       <c r="K3">
-        <v>1.088972439691654</v>
+        <v>1.074774439185522</v>
       </c>
       <c r="L3">
-        <v>1.091250581336528</v>
+        <v>1.068435389138348</v>
       </c>
       <c r="M3">
-        <v>1.100835199105746</v>
+        <v>1.080799206333067</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.088119578485727</v>
+        <v>1.05600748006157</v>
       </c>
       <c r="D4">
-        <v>1.087376886973792</v>
+        <v>1.069379882632145</v>
       </c>
       <c r="E4">
-        <v>1.089752568116499</v>
+        <v>1.063359564402294</v>
       </c>
       <c r="F4">
-        <v>1.099359950300613</v>
+        <v>1.075849642369864</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060090394316215</v>
+        <v>1.073361599894713</v>
       </c>
       <c r="J4">
-        <v>1.092414179809803</v>
+        <v>1.074079456246707</v>
       </c>
       <c r="K4">
-        <v>1.089737510452409</v>
+        <v>1.078707301957802</v>
       </c>
       <c r="L4">
-        <v>1.092107789751352</v>
+        <v>1.072749016122986</v>
       </c>
       <c r="M4">
-        <v>1.101693581356674</v>
+        <v>1.085111340347635</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.088583806880932</v>
+        <v>1.058307224397712</v>
       </c>
       <c r="D5">
-        <v>1.087747785041193</v>
+        <v>1.071224426394597</v>
       </c>
       <c r="E5">
-        <v>1.090162124136733</v>
+        <v>1.065364710679208</v>
       </c>
       <c r="F5">
-        <v>1.09976957797388</v>
+        <v>1.07785097134132</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060228710566107</v>
+        <v>1.074215113918744</v>
       </c>
       <c r="J5">
-        <v>1.092785571623835</v>
+        <v>1.075910624786055</v>
       </c>
       <c r="K5">
-        <v>1.090058490920425</v>
+        <v>1.080328056851223</v>
       </c>
       <c r="L5">
-        <v>1.092467463566305</v>
+        <v>1.074526971330068</v>
       </c>
       <c r="M5">
-        <v>1.102053811967877</v>
+        <v>1.086889230881704</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.088661720521894</v>
+        <v>1.058690885321722</v>
       </c>
       <c r="D6">
-        <v>1.087810029923796</v>
+        <v>1.071532162230925</v>
       </c>
       <c r="E6">
-        <v>1.090230857096989</v>
+        <v>1.065699236201195</v>
       </c>
       <c r="F6">
-        <v>1.099838326720327</v>
+        <v>1.078184893815231</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060251898600483</v>
+        <v>1.074357284817987</v>
       </c>
       <c r="J6">
-        <v>1.092847891963497</v>
+        <v>1.076216028079632</v>
       </c>
       <c r="K6">
-        <v>1.090112346781093</v>
+        <v>1.080598332801518</v>
       </c>
       <c r="L6">
-        <v>1.092527813828687</v>
+        <v>1.074823479281197</v>
       </c>
       <c r="M6">
-        <v>1.102114259417341</v>
+        <v>1.087185760000711</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.088125783703027</v>
+        <v>1.056038377015815</v>
       </c>
       <c r="D7">
-        <v>1.087381844983107</v>
+        <v>1.069404662911304</v>
       </c>
       <c r="E7">
-        <v>1.089758042861338</v>
+        <v>1.063386502604418</v>
       </c>
       <c r="F7">
-        <v>1.09936542575092</v>
+        <v>1.07587652699905</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060092244910821</v>
+        <v>1.073373081511438</v>
       </c>
       <c r="J7">
-        <v>1.092419144916044</v>
+        <v>1.074104063675886</v>
       </c>
       <c r="K7">
-        <v>1.089741801971791</v>
+        <v>1.078729084130494</v>
       </c>
       <c r="L7">
-        <v>1.092112598453542</v>
+        <v>1.072772909834864</v>
       </c>
       <c r="M7">
-        <v>1.101698397250678</v>
+        <v>1.085135231028423</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.085880886192939</v>
+        <v>1.044573168103781</v>
       </c>
       <c r="D8">
-        <v>1.085587618891338</v>
+        <v>1.0602117887261</v>
       </c>
       <c r="E8">
-        <v>1.087776862679382</v>
+        <v>1.053392295933607</v>
       </c>
       <c r="F8">
-        <v>1.097384430298239</v>
+        <v>1.06590636281469</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059419696870241</v>
+        <v>1.069086867559836</v>
       </c>
       <c r="J8">
-        <v>1.090621485142613</v>
+        <v>1.064962928326244</v>
       </c>
       <c r="K8">
-        <v>1.088187400524057</v>
+        <v>1.070633544215873</v>
       </c>
       <c r="L8">
-        <v>1.090371126791929</v>
+        <v>1.06389452766963</v>
       </c>
       <c r="M8">
-        <v>1.099954760770665</v>
+        <v>1.076261892042248</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.081906259846069</v>
+        <v>1.022725948409857</v>
       </c>
       <c r="D9">
-        <v>1.082408441323235</v>
+        <v>1.042715535293562</v>
       </c>
       <c r="E9">
-        <v>1.084266591487533</v>
+        <v>1.034364370241031</v>
       </c>
       <c r="F9">
-        <v>1.093876584021225</v>
+        <v>1.046946036594911</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058214604362877</v>
+        <v>1.060798878358906</v>
       </c>
       <c r="J9">
-        <v>1.087432105509635</v>
+        <v>1.047500951660946</v>
       </c>
       <c r="K9">
-        <v>1.085426707197249</v>
+        <v>1.05515161569288</v>
       </c>
       <c r="L9">
-        <v>1.087279359456257</v>
+        <v>1.046923470867129</v>
       </c>
       <c r="M9">
-        <v>1.096861242041422</v>
+        <v>1.059320746920039</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.079243043975719</v>
+        <v>1.006807984121513</v>
       </c>
       <c r="D10">
-        <v>1.080276619470768</v>
+        <v>1.029992395683808</v>
       </c>
       <c r="E10">
-        <v>1.081912826054109</v>
+        <v>1.020519793778486</v>
       </c>
       <c r="F10">
-        <v>1.091525880624595</v>
+        <v>1.033167401724904</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057397499911419</v>
+        <v>1.054682951775283</v>
       </c>
       <c r="J10">
-        <v>1.085290630642365</v>
+        <v>1.034754071280401</v>
       </c>
       <c r="K10">
-        <v>1.083571140111884</v>
+        <v>1.043840450861544</v>
       </c>
       <c r="L10">
-        <v>1.085202023534982</v>
+        <v>1.034528183905383</v>
       </c>
       <c r="M10">
-        <v>1.094784156202508</v>
+        <v>1.046962563247352</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.078086468508089</v>
+        <v>0.9995264484429034</v>
       </c>
       <c r="D11">
-        <v>1.079350450965541</v>
+        <v>1.024180948121701</v>
       </c>
       <c r="E11">
-        <v>1.080890243180369</v>
+        <v>1.01419349422139</v>
       </c>
       <c r="F11">
-        <v>1.090504973939938</v>
+        <v>1.026875692456617</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057040370504788</v>
+        <v>1.051868290919749</v>
       </c>
       <c r="J11">
-        <v>1.08435959254955</v>
+        <v>1.028918940992015</v>
       </c>
       <c r="K11">
-        <v>1.082763951871857</v>
+        <v>1.038660814025784</v>
       </c>
       <c r="L11">
-        <v>1.084298537337754</v>
+        <v>1.028852615670671</v>
       </c>
       <c r="M11">
-        <v>1.093881121233627</v>
+        <v>1.041307967196373</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.077656340680966</v>
+        <v>0.9967563406260129</v>
       </c>
       <c r="D12">
-        <v>1.079005957199657</v>
+        <v>1.021971680071971</v>
       </c>
       <c r="E12">
-        <v>1.080509888140073</v>
+        <v>1.011788028451948</v>
       </c>
       <c r="F12">
-        <v>1.09012529477788</v>
+        <v>1.024484094847055</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056907212825952</v>
+        <v>1.050795100097816</v>
       </c>
       <c r="J12">
-        <v>1.084013185225237</v>
+        <v>1.02669861518778</v>
       </c>
       <c r="K12">
-        <v>1.082463557190281</v>
+        <v>1.036689705677003</v>
       </c>
       <c r="L12">
-        <v>1.083962330947784</v>
+        <v>1.02669282026259</v>
       </c>
       <c r="M12">
-        <v>1.093545134544137</v>
+        <v>1.03915678528477</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.077748628533044</v>
+        <v>0.9973536238719886</v>
       </c>
       <c r="D13">
-        <v>1.079079873896298</v>
+        <v>1.022447960626581</v>
       </c>
       <c r="E13">
-        <v>1.080591499435731</v>
+        <v>1.012306628570567</v>
       </c>
       <c r="F13">
-        <v>1.090206758674656</v>
+        <v>1.024999672017525</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056935798491563</v>
+        <v>1.051026604947953</v>
       </c>
       <c r="J13">
-        <v>1.084087517146521</v>
+        <v>1.027177374467564</v>
       </c>
       <c r="K13">
-        <v>1.082528018793969</v>
+        <v>1.037114735511189</v>
       </c>
       <c r="L13">
-        <v>1.084034476228867</v>
+        <v>1.027158535525556</v>
       </c>
       <c r="M13">
-        <v>1.093617230332158</v>
+        <v>1.039620614104907</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.078050924791969</v>
+        <v>0.9992988497032826</v>
       </c>
       <c r="D14">
-        <v>1.079321984730383</v>
+        <v>1.023999395704786</v>
       </c>
       <c r="E14">
-        <v>1.08085881364534</v>
+        <v>1.013995828795317</v>
       </c>
       <c r="F14">
-        <v>1.090473599182888</v>
+        <v>1.026679151848972</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057029373961025</v>
+        <v>1.051780162926105</v>
       </c>
       <c r="J14">
-        <v>1.084330970283132</v>
+        <v>1.028736522258496</v>
       </c>
       <c r="K14">
-        <v>1.08273913282482</v>
+        <v>1.038498874425064</v>
       </c>
       <c r="L14">
-        <v>1.084270758957761</v>
+        <v>1.028675173609328</v>
       </c>
       <c r="M14">
-        <v>1.093853359948129</v>
+        <v>1.041131219776449</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.078237109563503</v>
+        <v>1.000488469386608</v>
       </c>
       <c r="D15">
-        <v>1.079471094111215</v>
+        <v>1.024948404774602</v>
       </c>
       <c r="E15">
-        <v>1.081023445149021</v>
+        <v>1.01502904396978</v>
       </c>
       <c r="F15">
-        <v>1.090637945901021</v>
+        <v>1.027706516817183</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057086961958141</v>
+        <v>1.052240695938075</v>
       </c>
       <c r="J15">
-        <v>1.084480892782469</v>
+        <v>1.029689975593713</v>
       </c>
       <c r="K15">
-        <v>1.082869131419192</v>
+        <v>1.039345280939636</v>
       </c>
       <c r="L15">
-        <v>1.084416259153385</v>
+        <v>1.029602607894831</v>
       </c>
       <c r="M15">
-        <v>1.093998772725931</v>
+        <v>1.042055049256272</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.079319729427144</v>
+        <v>1.007282470915839</v>
       </c>
       <c r="D16">
-        <v>1.080338020448664</v>
+        <v>1.030371287412539</v>
       </c>
       <c r="E16">
-        <v>1.08198061901387</v>
+        <v>1.020932192138188</v>
       </c>
       <c r="F16">
-        <v>1.091593569776109</v>
+        <v>1.033577640816487</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057421131047644</v>
+        <v>1.054866024934143</v>
       </c>
       <c r="J16">
-        <v>1.085352340168406</v>
+        <v>1.035134232295837</v>
       </c>
       <c r="K16">
-        <v>1.083624631335352</v>
+        <v>1.044177875044851</v>
       </c>
       <c r="L16">
-        <v>1.085261899890334</v>
+        <v>1.034897922716988</v>
       </c>
       <c r="M16">
-        <v>1.094844009885401</v>
+        <v>1.047331020612166</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.079997910940931</v>
+        <v>1.011435457793068</v>
       </c>
       <c r="D17">
-        <v>1.080880988954002</v>
+        <v>1.033688568510416</v>
       </c>
       <c r="E17">
-        <v>1.082580112711141</v>
+        <v>1.024542528404451</v>
       </c>
       <c r="F17">
-        <v>1.092192185441919</v>
+        <v>1.037169579087167</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05762985438964</v>
+        <v>1.056466498301754</v>
       </c>
       <c r="J17">
-        <v>1.085897959130219</v>
+        <v>1.038461171784683</v>
       </c>
       <c r="K17">
-        <v>1.084097534134985</v>
+        <v>1.047130619199492</v>
       </c>
       <c r="L17">
-        <v>1.085791272000037</v>
+        <v>1.038133500223232</v>
       </c>
       <c r="M17">
-        <v>1.095373221059257</v>
+        <v>1.050555834490971</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.08039315716033</v>
+        <v>1.013820825271077</v>
       </c>
       <c r="D18">
-        <v>1.081197397330005</v>
+        <v>1.03559471538095</v>
       </c>
       <c r="E18">
-        <v>1.082929461365665</v>
+        <v>1.026616828593882</v>
       </c>
       <c r="F18">
-        <v>1.092541055712005</v>
+        <v>1.039233721953537</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057751279437119</v>
+        <v>1.057384173591327</v>
       </c>
       <c r="J18">
-        <v>1.086215846997696</v>
+        <v>1.040371677983774</v>
       </c>
       <c r="K18">
-        <v>1.084373012587571</v>
+        <v>1.048826076852457</v>
       </c>
       <c r="L18">
-        <v>1.086099662053733</v>
+        <v>1.039991410392634</v>
       </c>
       <c r="M18">
-        <v>1.095681550292052</v>
+        <v>1.052407933239548</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.080527871151401</v>
+        <v>1.0146280917816</v>
       </c>
       <c r="D19">
-        <v>1.081305234553588</v>
+        <v>1.036239927954618</v>
       </c>
       <c r="E19">
-        <v>1.083048525357449</v>
+        <v>1.027318921008414</v>
       </c>
       <c r="F19">
-        <v>1.092659962293465</v>
+        <v>1.039932445219232</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057792628169922</v>
+        <v>1.05769446295284</v>
       </c>
       <c r="J19">
-        <v>1.086324177448962</v>
+        <v>1.041018167623897</v>
       </c>
       <c r="K19">
-        <v>1.084466883266054</v>
+        <v>1.049399767332792</v>
       </c>
       <c r="L19">
-        <v>1.086204750380475</v>
+        <v>1.040620079378056</v>
       </c>
       <c r="M19">
-        <v>1.095786623469054</v>
+        <v>1.053034697473662</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.079925182271964</v>
+        <v>1.010993755413769</v>
       </c>
       <c r="D20">
-        <v>1.080822764268151</v>
+        <v>1.033335666216273</v>
       </c>
       <c r="E20">
-        <v>1.082515826514641</v>
+        <v>1.024158475459583</v>
       </c>
       <c r="F20">
-        <v>1.092127989953694</v>
+        <v>1.036787439958171</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057607493462699</v>
+        <v>1.056296440569571</v>
       </c>
       <c r="J20">
-        <v>1.085839456959562</v>
+        <v>1.038107366679488</v>
       </c>
       <c r="K20">
-        <v>1.08404683322203</v>
+        <v>1.046816624954396</v>
       </c>
       <c r="L20">
-        <v>1.085734515165348</v>
+        <v>1.037789424545019</v>
       </c>
       <c r="M20">
-        <v>1.095316478068794</v>
+        <v>1.050212864785457</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.077961920674696</v>
+        <v>0.9987278972243808</v>
       </c>
       <c r="D21">
-        <v>1.079250702289126</v>
+        <v>1.023543980995535</v>
       </c>
       <c r="E21">
-        <v>1.080780110797526</v>
+        <v>1.013499987573206</v>
       </c>
       <c r="F21">
-        <v>1.090395034352762</v>
+        <v>1.026186143881769</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057001832272235</v>
+        <v>1.05155904748494</v>
       </c>
       <c r="J21">
-        <v>1.084259295468838</v>
+        <v>1.02827890098291</v>
       </c>
       <c r="K21">
-        <v>1.082676980800104</v>
+        <v>1.038092624656508</v>
       </c>
       <c r="L21">
-        <v>1.084201196561877</v>
+        <v>1.028230034092831</v>
       </c>
       <c r="M21">
-        <v>1.093783841197532</v>
+        <v>1.040687833152465</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.076724499485266</v>
+        <v>0.9906329657231053</v>
       </c>
       <c r="D22">
-        <v>1.078259538968715</v>
+        <v>1.017091310617998</v>
       </c>
       <c r="E22">
-        <v>1.079685769243856</v>
+        <v>1.006473279894419</v>
       </c>
       <c r="F22">
-        <v>1.089302736697671</v>
+        <v>1.019201366861806</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056618110794992</v>
+        <v>1.048418505194177</v>
       </c>
       <c r="J22">
-        <v>1.083262432884126</v>
+        <v>1.021789864790663</v>
       </c>
       <c r="K22">
-        <v>1.081812402541453</v>
+        <v>1.032331622373998</v>
       </c>
       <c r="L22">
-        <v>1.083233594694756</v>
+        <v>1.021917581401586</v>
       </c>
       <c r="M22">
-        <v>1.092816969647702</v>
+        <v>1.034401802357389</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.077380773335792</v>
+        <v>0.9949631978414966</v>
       </c>
       <c r="D23">
-        <v>1.078785237507554</v>
+        <v>1.020542061980173</v>
       </c>
       <c r="E23">
-        <v>1.080266191947922</v>
+        <v>1.010231306784882</v>
       </c>
       <c r="F23">
-        <v>1.089882046436312</v>
+        <v>1.022936556201243</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056821807263202</v>
+        <v>1.05009974266702</v>
       </c>
       <c r="J23">
-        <v>1.083791210611448</v>
+        <v>1.025261244976037</v>
       </c>
       <c r="K23">
-        <v>1.082271048059055</v>
+        <v>1.035413621170292</v>
       </c>
       <c r="L23">
-        <v>1.083746878860738</v>
+        <v>1.025294586908773</v>
       </c>
       <c r="M23">
-        <v>1.093329837871188</v>
+        <v>1.037764311286988</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.079958046232838</v>
+        <v>1.011193455531643</v>
       </c>
       <c r="D24">
-        <v>1.080849074411966</v>
+        <v>1.033495216086432</v>
       </c>
       <c r="E24">
-        <v>1.082544875686567</v>
+        <v>1.024332109520003</v>
       </c>
       <c r="F24">
-        <v>1.092156998034187</v>
+        <v>1.036960207482361</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05761759839106</v>
+        <v>1.056373331132784</v>
       </c>
       <c r="J24">
-        <v>1.085865892692158</v>
+        <v>1.038267328410652</v>
       </c>
       <c r="K24">
-        <v>1.084069743887603</v>
+        <v>1.046958587989902</v>
       </c>
       <c r="L24">
-        <v>1.085760162321552</v>
+        <v>1.037944987834509</v>
       </c>
       <c r="M24">
-        <v>1.095342118867298</v>
+        <v>1.050367926897294</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.08293610987633</v>
+        <v>1.028592192885476</v>
       </c>
       <c r="D25">
-        <v>1.08323247168638</v>
+        <v>1.04741012079623</v>
       </c>
       <c r="E25">
-        <v>1.085176424139053</v>
+        <v>1.039470982126706</v>
       </c>
       <c r="F25">
-        <v>1.094785537499505</v>
+        <v>1.052031815036748</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058528545480589</v>
+        <v>1.063037744892212</v>
       </c>
       <c r="J25">
-        <v>1.088259271521975</v>
+        <v>1.052194195828463</v>
       </c>
       <c r="K25">
-        <v>1.086143033851411</v>
+        <v>1.059314480730655</v>
       </c>
       <c r="L25">
-        <v>1.088081455635591</v>
+        <v>1.051485973413915</v>
       </c>
       <c r="M25">
-        <v>1.097663543357359</v>
+        <v>1.063872740228347</v>
       </c>
     </row>
   </sheetData>
